--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/artfynd/A 30186-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/artfynd/A 30186-2021.xlsx", "A 30186-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/kartor/A 30186-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/kartor/A 30186-2021.png", "A 30186-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/klagomål/A 30186-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/klagomål/A 30186-2021.docx", "A 30186-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/klagomålsmail/A 30186-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/klagomålsmail/A 30186-2021.docx", "A 30186-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/tillsyn/A 30186-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/tillsyn/A 30186-2021.docx", "A 30186-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/tillsynsmail/A 30186-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_HALLSTAHAMMAR/tillsynsmail/A 30186-2021.docx", "A 30186-2021")</f>
         <v/>
       </c>
     </row>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>

--- a/Översikt HALLSTAHAMMAR.xlsx
+++ b/Översikt HALLSTAHAMMAR.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y66"/>
+  <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44363</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>43431</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         <v>43473</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>43476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>43500</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>43553</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
         <v>43559</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>43567</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>43620</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>43621</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>43623</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>43629</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1309,7 +1309,7 @@
         <v>43759</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         <v>43790</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
         <v>43802</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>43845</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         <v>43858</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>43868</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         <v>43871</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
         <v>43873</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>43873</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>43874</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>43875</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
         <v>43881</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
         <v>43906</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2055,7 +2055,7 @@
         <v>43908</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         <v>43910</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>43992</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2231,7 +2231,7 @@
         <v>43992</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>43992</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>43992</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>44083</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         <v>44084</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44124</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2593,7 +2593,7 @@
         <v>44144</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2650,7 +2650,7 @@
         <v>44217</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>44217</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2764,7 +2764,7 @@
         <v>44237</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         <v>44252</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
         <v>44333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>44342</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
         <v>44358</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3059,7 +3059,7 @@
         <v>44363</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>44365</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
         <v>44365</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>44378</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>44434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         <v>44434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>44502</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3458,7 +3458,7 @@
         <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3515,7 +3515,7 @@
         <v>44502</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         <v>44502</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3629,7 +3629,7 @@
         <v>44502</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3686,7 +3686,7 @@
         <v>44537</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3743,7 +3743,7 @@
         <v>44651</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3805,7 +3805,7 @@
         <v>44705</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
         <v>44764</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3924,7 +3924,7 @@
         <v>44770</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>44813</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>44888</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>44888</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>44977</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4219,7 +4219,7 @@
         <v>45069</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4276,7 +4276,7 @@
         <v>45089</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
       </c>
       <c r="R65" s="2" t="inlineStr"/>
     </row>
-    <row r="66">
+    <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
           <t>A 28811-2023</t>
@@ -4338,7 +4338,7 @@
         <v>45104</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4389,6 +4389,68 @@
         <v>0</v>
       </c>
       <c r="R66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>A 48245-2023</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>45205</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>45206</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>VÄSTMANLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>HALLSTAHAMMAR</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
